--- a/SWTX - SpringWorks Therapeutics/SWTX - SpringWorks.xlsx
+++ b/SWTX - SpringWorks Therapeutics/SWTX - SpringWorks.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://piontke-my.sharepoint.com/personal/t_asaad_mppm_com/Documents/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://piontke-my.sharepoint.com/personal/t_asaad_mppm_com/Documents/Desktop/SWTX - SpringWorks Therapeutics/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="179" documentId="8_{E0BA03B7-CD4E-49C9-8BEE-6EABE7C11D9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{97A2A03C-E6DD-4ED3-BFCF-CC0BB0D56303}"/>
+  <xr:revisionPtr revIDLastSave="184" documentId="8_{E0BA03B7-CD4E-49C9-8BEE-6EABE7C11D9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{77DE6E01-6EB9-4B15-BE5A-0C09C371D289}"/>
   <bookViews>
-    <workbookView xWindow="2055" yWindow="435" windowWidth="23760" windowHeight="13050" activeTab="3" xr2:uid="{08401E23-2268-421B-BF5F-301171AB2AD8}"/>
+    <workbookView xWindow="2055" yWindow="435" windowWidth="23760" windowHeight="13050" activeTab="2" xr2:uid="{08401E23-2268-421B-BF5F-301171AB2AD8}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="53">
   <si>
     <t xml:space="preserve">Name </t>
   </si>
@@ -195,6 +195,9 @@
   </si>
   <si>
     <t>1/2</t>
+  </si>
+  <si>
+    <t>"trametinib Plexiform Neurofibrosis"</t>
   </si>
 </sst>
 </file>
@@ -333,7 +336,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -346,14 +349,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -366,7 +365,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -738,16 +737,16 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="D3" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="18" t="s">
+      <c r="E3" s="16" t="s">
         <v>2</v>
       </c>
       <c r="F3" s="1"/>
@@ -757,18 +756,17 @@
       <c r="B4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="9" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B5" s="4"/>
       <c r="C5" s="2"/>
-      <c r="D5" s="17" t="s">
+      <c r="D5" s="15" t="s">
         <v>4</v>
       </c>
       <c r="E5" s="3"/>
@@ -777,13 +775,13 @@
       <c r="B6" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="E6" s="10" t="s">
         <v>9</v>
       </c>
     </row>
@@ -791,27 +789,27 @@
       <c r="B7" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="E7" s="10" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="13" t="s">
+      <c r="E8" s="11" t="s">
         <v>17</v>
       </c>
     </row>
@@ -847,7 +845,7 @@
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="20" t="s">
         <v>34</v>
       </c>
     </row>
@@ -859,10 +857,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{552CC8B0-3921-478A-9DEB-29924A8840D2}">
   <sheetPr codeName="Tabelle1"/>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -872,99 +870,106 @@
     <col min="3" max="3" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="18" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
+      <c r="B2" s="17" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
         <v>9</v>
       </c>
-      <c r="B2" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" s="1">
+      <c r="C3" s="1">
         <v>33507822</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D3" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
         <v>6</v>
       </c>
-      <c r="B4" s="19"/>
-      <c r="C4" s="1">
+      <c r="B5" s="17"/>
+      <c r="C5" s="1">
         <v>34388689</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D5" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
         <v>9</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C7" s="1">
         <v>39514826</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D7" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D7" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D8" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
         <v>9</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C9" s="1">
         <v>39621958</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D9" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D9" t="s">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D10" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C11" s="1">
         <v>39212544</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D11" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D11" t="s">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D12" t="s">
         <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B13" s="1" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -976,8 +981,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{272BA882-42F3-4F2F-BF1F-2CAB8F9D6946}">
   <dimension ref="A2:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -988,20 +993,20 @@
     <col min="4" max="4" width="18.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="20" t="s">
+    <row r="2" spans="1:5" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="D2" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="E2" s="20" t="s">
+      <c r="E2" s="18" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1057,7 +1062,7 @@
       <c r="D6" t="s">
         <v>49</v>
       </c>
-      <c r="E6" s="23" t="s">
+      <c r="E6" s="21" t="s">
         <v>51</v>
       </c>
     </row>
